--- a/files/FATO.xlsx
+++ b/files/FATO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victorino Vila\1108-elt-pentaho-data-integration\Videos\1108-elt-pentaho-data-integration-Vídeo5.1 Preparando o teste dos Lookups\Arquivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\BI-DW-with-Pentaho\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F49CF51-3D58-4B99-B080-622B61838548}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB38105C-9308-4133-8A84-40A22463AE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{77FE4DFA-C449-48DE-9648-46C8DF06C3B9}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{77FE4DFA-C449-48DE-9648-46C8DF06C3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,12 +48,6 @@
     <t>20190101</t>
   </si>
   <si>
-    <t>20190201</t>
-  </si>
-  <si>
-    <t>20190301</t>
-  </si>
-  <si>
     <t>2343223</t>
   </si>
   <si>
@@ -70,14 +64,28 @@
   </si>
   <si>
     <t>5288954</t>
+  </si>
+  <si>
+    <t>20220201</t>
+  </si>
+  <si>
+    <t>20220301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,9 +113,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,260 +440,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F3E518-E897-4568-B126-EFBFF45B1A80}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>